--- a/PointsTiming/التجمع/Daily/تجمع يوم 8-12-2025.xlsx
+++ b/PointsTiming/التجمع/Daily/تجمع يوم 8-12-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="8" activeTab="14"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1- اكتوبر وزايد" sheetId="1" r:id="rId1"/>
@@ -3619,7 +3619,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:G28"/>
     </sheetView>
@@ -3928,9 +3928,7 @@
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
-      <c r="E20" s="85">
-        <v>0.611111111111111</v>
-      </c>
+      <c r="E20" s="85"/>
       <c r="F20" s="86">
         <v>0.614583333333333</v>
       </c>
@@ -4007,7 +4005,9 @@
       <c r="A26" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="85"/>
+      <c r="B26" s="85">
+        <v>0.805555555555556</v>
+      </c>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
       <c r="E26" s="85"/>
@@ -4043,7 +4043,9 @@
       <c r="E28" s="85">
         <v>0.902777777777778</v>
       </c>
-      <c r="F28" s="85"/>
+      <c r="F28" s="85">
+        <v>0.90625</v>
+      </c>
       <c r="G28" s="85">
         <v>0.916666666666667</v>
       </c>
@@ -4732,7 +4734,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="$A23:$XFD23"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -4959,9 +4961,7 @@
       <c r="A21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="15">
-        <v>0.809027777777778</v>
-      </c>
+      <c r="B21" s="15"/>
       <c r="C21" s="11"/>
       <c r="D21" s="15"/>
       <c r="E21" s="58"/>
@@ -4972,9 +4972,7 @@
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="15">
-        <v>0.854166666666667</v>
-      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="58"/>
     </row>
     <row r="23" ht="15.5" spans="1:5">
@@ -6514,7 +6512,9 @@
       <c r="A26" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="22">
+        <v>0.861111111111111</v>
+      </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22">
         <v>0.868055555555555</v>
@@ -7063,11 +7063,11 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="$A31:$XFD31"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -7358,7 +7358,9 @@
       <c r="C22" s="25">
         <v>0.621527777777778</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="25">
+        <v>0.625</v>
+      </c>
       <c r="E22" s="25">
         <v>0.628472222222222</v>
       </c>
@@ -7908,9 +7910,7 @@
       <c r="B21" s="25">
         <v>0.697916666666667</v>
       </c>
-      <c r="C21" s="25">
-        <v>0.70486111111111</v>
-      </c>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" ht="15.5" spans="1:3">
       <c r="A22" s="25" t="s">
@@ -10649,7 +10649,9 @@
         <v>41</v>
       </c>
       <c r="B22" s="39"/>
-      <c r="C22" s="25"/>
+      <c r="C22" s="25">
+        <v>0.899305555555556</v>
+      </c>
       <c r="D22" s="39"/>
       <c r="E22" s="17"/>
     </row>
